--- a/Dataset/cleaned/final_data.xlsx
+++ b/Dataset/cleaned/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1585"/>
+  <dimension ref="A1:I1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62445,7 +62445,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
@@ -62459,17 +62459,25 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3027</t>
+          <t>0KC1FKH49A3042</t>
         </is>
       </c>
       <c r="E1443" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1443" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1443" t="inlineStr">
@@ -62480,7 +62488,7 @@
     </row>
     <row r="1444">
       <c r="A1444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
@@ -62494,7 +62502,7 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3042</t>
+          <t>0KC1FKH49A3041</t>
         </is>
       </c>
       <c r="E1444" t="n">
@@ -62523,7 +62531,7 @@
     </row>
     <row r="1445">
       <c r="A1445" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
@@ -62537,17 +62545,25 @@
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3042</t>
+          <t>0KC1FKH49A303Y</t>
         </is>
       </c>
       <c r="E1445" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
+      <c r="F1445" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1445" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1445" t="inlineStr">
@@ -62558,7 +62574,7 @@
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
@@ -62572,7 +62588,7 @@
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3041</t>
+          <t>0KC1FKH49A303V</t>
         </is>
       </c>
       <c r="E1446" t="n">
@@ -62601,7 +62617,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
@@ -62615,17 +62631,25 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3041</t>
+          <t>0KC1FKH49A303T</t>
         </is>
       </c>
       <c r="E1447" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1447" t="inlineStr">
@@ -62636,7 +62660,7 @@
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
@@ -62650,7 +62674,7 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303Y</t>
+          <t>0KC1FKH49A303S</t>
         </is>
       </c>
       <c r="E1448" t="n">
@@ -62679,7 +62703,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
@@ -62693,17 +62717,25 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303Y</t>
+          <t>0KC1FKH49A303R</t>
         </is>
       </c>
       <c r="E1449" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1449" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1449" t="inlineStr">
@@ -62714,7 +62746,7 @@
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
@@ -62728,7 +62760,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303V</t>
+          <t>0KC1FKH49A303Q</t>
         </is>
       </c>
       <c r="E1450" t="n">
@@ -62757,7 +62789,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
@@ -62771,17 +62803,25 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303V</t>
+          <t>0KC1FKH49A303P</t>
         </is>
       </c>
       <c r="E1451" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1451" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1451" t="inlineStr">
@@ -62792,7 +62832,7 @@
     </row>
     <row r="1452">
       <c r="A1452" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
@@ -62806,7 +62846,7 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303T</t>
+          <t>0KC1FKH49A303N</t>
         </is>
       </c>
       <c r="E1452" t="n">
@@ -62835,7 +62875,7 @@
     </row>
     <row r="1453">
       <c r="A1453" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
@@ -62849,17 +62889,25 @@
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303T</t>
+          <t>0KC1FKH49A303M</t>
         </is>
       </c>
       <c r="E1453" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
+      <c r="F1453" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1453" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1453" t="inlineStr">
@@ -62870,7 +62918,7 @@
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
@@ -62884,7 +62932,7 @@
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303S</t>
+          <t>0KC1FKH49A303L</t>
         </is>
       </c>
       <c r="E1454" t="n">
@@ -62913,7 +62961,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
@@ -62927,17 +62975,25 @@
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303S</t>
+          <t>0KC1FKH49A303K</t>
         </is>
       </c>
       <c r="E1455" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
+      <c r="F1455" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1455" t="inlineStr">
@@ -62948,7 +63004,7 @@
     </row>
     <row r="1456">
       <c r="A1456" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
@@ -62962,7 +63018,7 @@
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303R</t>
+          <t>0KC1FKH49A303J</t>
         </is>
       </c>
       <c r="E1456" t="n">
@@ -62991,7 +63047,7 @@
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
@@ -63005,17 +63061,25 @@
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303R</t>
+          <t>0KC1FKH49A303H</t>
         </is>
       </c>
       <c r="E1457" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1457" t="inlineStr">
@@ -63026,7 +63090,7 @@
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
@@ -63040,7 +63104,7 @@
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303Q</t>
+          <t>0KC1FKH49A303G</t>
         </is>
       </c>
       <c r="E1458" t="n">
@@ -63069,7 +63133,7 @@
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
@@ -63083,17 +63147,25 @@
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303Q</t>
+          <t>0KC1FKH49A303F</t>
         </is>
       </c>
       <c r="E1459" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1459" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1459" t="inlineStr">
@@ -63104,7 +63176,7 @@
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
@@ -63113,12 +63185,12 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303P</t>
+          <t>0KC1FKH49D3022</t>
         </is>
       </c>
       <c r="E1460" t="n">
@@ -63147,7 +63219,7 @@
     </row>
     <row r="1461">
       <c r="A1461" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
@@ -63156,22 +63228,30 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303P</t>
+          <t>0KC1FKH49D3023</t>
         </is>
       </c>
       <c r="E1461" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1461" t="inlineStr">
@@ -63182,7 +63262,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
@@ -63191,12 +63271,12 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303N</t>
+          <t>0KC1FKH49D3020</t>
         </is>
       </c>
       <c r="E1462" t="n">
@@ -63225,7 +63305,7 @@
     </row>
     <row r="1463">
       <c r="A1463" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
@@ -63234,22 +63314,30 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303N</t>
+          <t>0KC1FKH49D301Z</t>
         </is>
       </c>
       <c r="E1463" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1463" t="inlineStr">
@@ -63260,7 +63348,7 @@
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
@@ -63269,12 +63357,12 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303M</t>
+          <t>0KC1FKH49D3021</t>
         </is>
       </c>
       <c r="E1464" t="n">
@@ -63303,7 +63391,7 @@
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
@@ -63312,22 +63400,30 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303M</t>
+          <t>0KC1FKH49D301Y</t>
         </is>
       </c>
       <c r="E1465" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1465" t="inlineStr">
@@ -63338,7 +63434,7 @@
     </row>
     <row r="1466">
       <c r="A1466" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
@@ -63347,12 +63443,12 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303L</t>
+          <t>0KC1FKH49D301X</t>
         </is>
       </c>
       <c r="E1466" t="n">
@@ -63381,7 +63477,7 @@
     </row>
     <row r="1467">
       <c r="A1467" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
@@ -63390,22 +63486,30 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303L</t>
+          <t>0KC1FKH49D301W</t>
         </is>
       </c>
       <c r="E1467" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="F1467" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1467" t="inlineStr">
@@ -63416,7 +63520,7 @@
     </row>
     <row r="1468">
       <c r="A1468" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
@@ -63425,12 +63529,12 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303K</t>
+          <t>0KC1FKH49D301V</t>
         </is>
       </c>
       <c r="E1468" t="n">
@@ -63459,7 +63563,7 @@
     </row>
     <row r="1469">
       <c r="A1469" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
@@ -63468,22 +63572,30 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303K</t>
+          <t>0KC1FKH49D302D</t>
         </is>
       </c>
       <c r="E1469" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="F1469" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1469" t="inlineStr">
@@ -63494,7 +63606,7 @@
     </row>
     <row r="1470">
       <c r="A1470" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
@@ -63503,12 +63615,12 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303J</t>
+          <t>0KC1FKH49D302F</t>
         </is>
       </c>
       <c r="E1470" t="n">
@@ -63537,7 +63649,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
@@ -63546,22 +63658,30 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303J</t>
+          <t>0KC1FKH49D3028</t>
         </is>
       </c>
       <c r="E1471" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="F1471" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1471" t="inlineStr">
@@ -63572,7 +63692,7 @@
     </row>
     <row r="1472">
       <c r="A1472" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
@@ -63581,12 +63701,12 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303H</t>
+          <t>0KC1FKH49D302A</t>
         </is>
       </c>
       <c r="E1472" t="n">
@@ -63615,7 +63735,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
@@ -63624,22 +63744,30 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303H</t>
+          <t>0KC1FKH49D302B</t>
         </is>
       </c>
       <c r="E1473" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1473" t="inlineStr">
@@ -63650,7 +63778,7 @@
     </row>
     <row r="1474">
       <c r="A1474" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
@@ -63659,12 +63787,12 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303G</t>
+          <t>0KC1FKH49D3024</t>
         </is>
       </c>
       <c r="E1474" t="n">
@@ -63693,7 +63821,7 @@
     </row>
     <row r="1475">
       <c r="A1475" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
@@ -63702,22 +63830,30 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303G</t>
+          <t>0KC1FKH49D3025</t>
         </is>
       </c>
       <c r="E1475" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="F1475" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1475" t="inlineStr">
@@ -63728,7 +63864,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
@@ -63737,12 +63873,12 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303F</t>
+          <t>0KC1FKH49D3026</t>
         </is>
       </c>
       <c r="E1476" t="n">
@@ -63771,7 +63907,7 @@
     </row>
     <row r="1477">
       <c r="A1477" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
@@ -63780,22 +63916,30 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>MF49A0238</t>
+          <t>MF49D0147</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303F</t>
+          <t>0KC1FKH49D3027</t>
         </is>
       </c>
       <c r="E1477" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="F1477" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1477" t="inlineStr">
@@ -63806,7 +63950,7 @@
     </row>
     <row r="1478">
       <c r="A1478" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
@@ -63815,12 +63959,12 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3022</t>
+          <t>0KC1FKH498300F</t>
         </is>
       </c>
       <c r="E1478" t="n">
@@ -63849,7 +63993,7 @@
     </row>
     <row r="1479">
       <c r="A1479" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
@@ -63858,22 +64002,30 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3022</t>
+          <t>0KC1FKH498300L</t>
         </is>
       </c>
       <c r="E1479" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1479" t="inlineStr">
@@ -63884,7 +64036,7 @@
     </row>
     <row r="1480">
       <c r="A1480" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
@@ -63893,12 +64045,12 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3023</t>
+          <t>0KC1FKH498300K</t>
         </is>
       </c>
       <c r="E1480" t="n">
@@ -63927,7 +64079,7 @@
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
@@ -63936,22 +64088,30 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3023</t>
+          <t>0KC1FKH498300J</t>
         </is>
       </c>
       <c r="E1481" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1481" t="inlineStr">
@@ -63962,7 +64122,7 @@
     </row>
     <row r="1482">
       <c r="A1482" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
@@ -63971,12 +64131,12 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3020</t>
+          <t>0KC1FKH498300H</t>
         </is>
       </c>
       <c r="E1482" t="n">
@@ -64005,7 +64165,7 @@
     </row>
     <row r="1483">
       <c r="A1483" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
@@ -64014,22 +64174,30 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3020</t>
+          <t>0KC1FKH498300G</t>
         </is>
       </c>
       <c r="E1483" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1483" t="inlineStr">
@@ -64040,7 +64208,7 @@
     </row>
     <row r="1484">
       <c r="A1484" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
@@ -64049,12 +64217,12 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301Z</t>
+          <t>0KC1FKH498300E</t>
         </is>
       </c>
       <c r="E1484" t="n">
@@ -64083,7 +64251,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
@@ -64092,22 +64260,30 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301Z</t>
+          <t>0KC1FKH498300C</t>
         </is>
       </c>
       <c r="E1485" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="F1485" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1485" t="inlineStr">
@@ -64118,7 +64294,7 @@
     </row>
     <row r="1486">
       <c r="A1486" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
@@ -64127,12 +64303,12 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3021</t>
+          <t>0KC1FKH498300A</t>
         </is>
       </c>
       <c r="E1486" t="n">
@@ -64161,7 +64337,7 @@
     </row>
     <row r="1487">
       <c r="A1487" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
@@ -64170,22 +64346,30 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3021</t>
+          <t>0KC1FKH498300D</t>
         </is>
       </c>
       <c r="E1487" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="F1487" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1487" t="inlineStr">
@@ -64196,7 +64380,7 @@
     </row>
     <row r="1488">
       <c r="A1488" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
@@ -64205,12 +64389,12 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301Y</t>
+          <t>0KC1FKH498300B</t>
         </is>
       </c>
       <c r="E1488" t="n">
@@ -64239,7 +64423,7 @@
     </row>
     <row r="1489">
       <c r="A1489" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
@@ -64248,22 +64432,30 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301Y</t>
+          <t>0KC1FKH4983008</t>
         </is>
       </c>
       <c r="E1489" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="F1489" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1489" t="inlineStr">
@@ -64274,7 +64466,7 @@
     </row>
     <row r="1490">
       <c r="A1490" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
@@ -64283,12 +64475,12 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301X</t>
+          <t>0KC1FKH4983007</t>
         </is>
       </c>
       <c r="E1490" t="n">
@@ -64317,7 +64509,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
@@ -64326,22 +64518,30 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301X</t>
+          <t>0KC1FKH497303X</t>
         </is>
       </c>
       <c r="E1491" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="F1491" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1491" t="inlineStr">
@@ -64352,7 +64552,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
@@ -64361,12 +64561,12 @@
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301W</t>
+          <t>0KC1FKH4983006</t>
         </is>
       </c>
       <c r="E1492" t="n">
@@ -64395,7 +64595,7 @@
     </row>
     <row r="1493">
       <c r="A1493" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
@@ -64404,22 +64604,30 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301W</t>
+          <t>0KC1FKH4983005</t>
         </is>
       </c>
       <c r="E1493" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
+      <c r="F1493" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1493" t="inlineStr">
@@ -64430,7 +64638,7 @@
     </row>
     <row r="1494">
       <c r="A1494" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
@@ -64439,12 +64647,12 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301V</t>
+          <t>0KC1FKH4983004</t>
         </is>
       </c>
       <c r="E1494" t="n">
@@ -64473,7 +64681,7 @@
     </row>
     <row r="1495">
       <c r="A1495" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
@@ -64482,22 +64690,30 @@
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF4980064</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>0KC1FKH49D301V</t>
+          <t>0KC1FKH4983003</t>
         </is>
       </c>
       <c r="E1495" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="F1495" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1495" t="inlineStr">
@@ -64508,7 +64724,7 @@
     </row>
     <row r="1496">
       <c r="A1496" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
@@ -64517,12 +64733,12 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302D</t>
+          <t>0KC1FKH49D3004</t>
         </is>
       </c>
       <c r="E1496" t="n">
@@ -64551,7 +64767,7 @@
     </row>
     <row r="1497">
       <c r="A1497" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
@@ -64560,22 +64776,30 @@
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302D</t>
+          <t>0KC1FKH49D3003</t>
         </is>
       </c>
       <c r="E1497" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1497" t="inlineStr">
@@ -64586,7 +64810,7 @@
     </row>
     <row r="1498">
       <c r="A1498" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
@@ -64595,12 +64819,12 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302F</t>
+          <t>0KC1FKH49D3002</t>
         </is>
       </c>
       <c r="E1498" t="n">
@@ -64629,7 +64853,7 @@
     </row>
     <row r="1499">
       <c r="A1499" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
@@ -64638,22 +64862,30 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302F</t>
+          <t>0KC1FKH49D3001</t>
         </is>
       </c>
       <c r="E1499" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1499" t="inlineStr">
@@ -64664,7 +64896,7 @@
     </row>
     <row r="1500">
       <c r="A1500" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
@@ -64673,12 +64905,12 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3028</t>
+          <t>0KC1FKH49C3040</t>
         </is>
       </c>
       <c r="E1500" t="n">
@@ -64707,7 +64939,7 @@
     </row>
     <row r="1501">
       <c r="A1501" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
@@ -64716,22 +64948,30 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3028</t>
+          <t>0KC1FKH49C303Z</t>
         </is>
       </c>
       <c r="E1501" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1501" t="inlineStr">
@@ -64742,7 +64982,7 @@
     </row>
     <row r="1502">
       <c r="A1502" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
@@ -64751,12 +64991,12 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302A</t>
+          <t>0KC1FKH49C303Y</t>
         </is>
       </c>
       <c r="E1502" t="n">
@@ -64785,7 +65025,7 @@
     </row>
     <row r="1503">
       <c r="A1503" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
@@ -64794,22 +65034,30 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302A</t>
+          <t>0KC1FKH49C303X</t>
         </is>
       </c>
       <c r="E1503" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1503" t="inlineStr">
@@ -64820,7 +65068,7 @@
     </row>
     <row r="1504">
       <c r="A1504" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
@@ -64829,12 +65077,12 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302B</t>
+          <t>0KC1FKH49C303W</t>
         </is>
       </c>
       <c r="E1504" t="n">
@@ -64863,7 +65111,7 @@
     </row>
     <row r="1505">
       <c r="A1505" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
@@ -64872,22 +65120,30 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>0KC1FKH49D302B</t>
+          <t>0KC1FKH49C303V</t>
         </is>
       </c>
       <c r="E1505" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1505" t="inlineStr">
@@ -64898,7 +65154,7 @@
     </row>
     <row r="1506">
       <c r="A1506" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
@@ -64907,12 +65163,12 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3024</t>
+          <t>0KC1FKH49C303T</t>
         </is>
       </c>
       <c r="E1506" t="n">
@@ -64941,7 +65197,7 @@
     </row>
     <row r="1507">
       <c r="A1507" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
@@ -64950,22 +65206,30 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3024</t>
+          <t>0KC1FKH49C303S</t>
         </is>
       </c>
       <c r="E1507" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1507" t="inlineStr">
@@ -64976,7 +65240,7 @@
     </row>
     <row r="1508">
       <c r="A1508" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
@@ -64985,12 +65249,12 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3025</t>
+          <t>0KC1FKH49C303R</t>
         </is>
       </c>
       <c r="E1508" t="n">
@@ -65019,7 +65283,7 @@
     </row>
     <row r="1509">
       <c r="A1509" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
@@ -65028,22 +65292,30 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3025</t>
+          <t>0KC1FKH49C303Q</t>
         </is>
       </c>
       <c r="E1509" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1509" t="inlineStr">
@@ -65054,7 +65326,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
@@ -65063,12 +65335,12 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3026</t>
+          <t>0KC1FKH49C303N</t>
         </is>
       </c>
       <c r="E1510" t="n">
@@ -65097,7 +65369,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
@@ -65106,22 +65378,30 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3026</t>
+          <t>0KC1FKH49C303M</t>
         </is>
       </c>
       <c r="E1511" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1511" t="inlineStr">
@@ -65132,7 +65412,7 @@
     </row>
     <row r="1512">
       <c r="A1512" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
@@ -65141,12 +65421,12 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3027</t>
+          <t>0KC1FKH49C303L</t>
         </is>
       </c>
       <c r="E1512" t="n">
@@ -65175,7 +65455,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
@@ -65184,2833 +65464,33 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>MF49D0147</t>
+          <t>MF49D0003</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3027</t>
+          <t>0KC1FKH49C303K</t>
         </is>
       </c>
       <c r="E1513" t="n">
         <v>801983371</v>
       </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>24 December 2024</t>
+        </is>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="I1513" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="n">
-        <v>37</v>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300F</t>
-        </is>
-      </c>
-      <c r="E1514" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1514" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1514" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="n">
-        <v>37</v>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300F</t>
-        </is>
-      </c>
-      <c r="E1515" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1515" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="n">
-        <v>38</v>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300L</t>
-        </is>
-      </c>
-      <c r="E1516" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1516" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1516" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="n">
-        <v>38</v>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300L</t>
-        </is>
-      </c>
-      <c r="E1517" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1517" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="n">
-        <v>39</v>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300K</t>
-        </is>
-      </c>
-      <c r="E1518" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1518" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="n">
-        <v>39</v>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300K</t>
-        </is>
-      </c>
-      <c r="E1519" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1519" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="n">
-        <v>40</v>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300J</t>
-        </is>
-      </c>
-      <c r="E1520" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1520" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="n">
-        <v>40</v>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300J</t>
-        </is>
-      </c>
-      <c r="E1521" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1521" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="n">
-        <v>41</v>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300H</t>
-        </is>
-      </c>
-      <c r="E1522" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1522" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="n">
-        <v>41</v>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300H</t>
-        </is>
-      </c>
-      <c r="E1523" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1523" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="n">
-        <v>42</v>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300G</t>
-        </is>
-      </c>
-      <c r="E1524" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1524" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="n">
-        <v>42</v>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300G</t>
-        </is>
-      </c>
-      <c r="E1525" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1525" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="n">
-        <v>43</v>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300E</t>
-        </is>
-      </c>
-      <c r="E1526" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1526" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="n">
-        <v>43</v>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300E</t>
-        </is>
-      </c>
-      <c r="E1527" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1527" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="n">
-        <v>44</v>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300C</t>
-        </is>
-      </c>
-      <c r="E1528" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1528" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="n">
-        <v>44</v>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300C</t>
-        </is>
-      </c>
-      <c r="E1529" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1529" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="n">
-        <v>45</v>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300A</t>
-        </is>
-      </c>
-      <c r="E1530" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1530" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1530" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="n">
-        <v>45</v>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300A</t>
-        </is>
-      </c>
-      <c r="E1531" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1531" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="n">
-        <v>46</v>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300D</t>
-        </is>
-      </c>
-      <c r="E1532" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1532" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1532" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="n">
-        <v>46</v>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300D</t>
-        </is>
-      </c>
-      <c r="E1533" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1533" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="n">
-        <v>47</v>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300B</t>
-        </is>
-      </c>
-      <c r="E1534" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1534" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="n">
-        <v>47</v>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>0KC1FKH498300B</t>
-        </is>
-      </c>
-      <c r="E1535" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1535" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="n">
-        <v>48</v>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983008</t>
-        </is>
-      </c>
-      <c r="E1536" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1536" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="n">
-        <v>48</v>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983008</t>
-        </is>
-      </c>
-      <c r="E1537" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1537" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="n">
-        <v>49</v>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983007</t>
-        </is>
-      </c>
-      <c r="E1538" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1538" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="n">
-        <v>49</v>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983007</t>
-        </is>
-      </c>
-      <c r="E1539" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1539" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="n">
-        <v>50</v>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr">
-        <is>
-          <t>0KC1FKH497303X</t>
-        </is>
-      </c>
-      <c r="E1540" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1540" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="n">
-        <v>50</v>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr">
-        <is>
-          <t>0KC1FKH497303X</t>
-        </is>
-      </c>
-      <c r="E1541" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1541" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="n">
-        <v>51</v>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983006</t>
-        </is>
-      </c>
-      <c r="E1542" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1542" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="n">
-        <v>51</v>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983006</t>
-        </is>
-      </c>
-      <c r="E1543" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1543" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="n">
-        <v>52</v>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983005</t>
-        </is>
-      </c>
-      <c r="E1544" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1544" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="n">
-        <v>52</v>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983005</t>
-        </is>
-      </c>
-      <c r="E1545" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1545" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="n">
-        <v>53</v>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983004</t>
-        </is>
-      </c>
-      <c r="E1546" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1546" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="n">
-        <v>53</v>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983004</t>
-        </is>
-      </c>
-      <c r="E1547" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1547" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="n">
-        <v>54</v>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983003</t>
-        </is>
-      </c>
-      <c r="E1548" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1548" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="n">
-        <v>54</v>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>MF4980064</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr">
-        <is>
-          <t>0KC1FKH4983003</t>
-        </is>
-      </c>
-      <c r="E1549" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1549" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="n">
-        <v>55</v>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3004</t>
-        </is>
-      </c>
-      <c r="E1550" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1550" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="n">
-        <v>55</v>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1551" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3004</t>
-        </is>
-      </c>
-      <c r="E1551" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1551" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="n">
-        <v>56</v>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1552" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3003</t>
-        </is>
-      </c>
-      <c r="E1552" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1552" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1552" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="n">
-        <v>56</v>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1553" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3003</t>
-        </is>
-      </c>
-      <c r="E1553" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1553" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="n">
-        <v>57</v>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3002</t>
-        </is>
-      </c>
-      <c r="E1554" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1554" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1554" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="n">
-        <v>57</v>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1555" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3002</t>
-        </is>
-      </c>
-      <c r="E1555" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1555" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="n">
-        <v>58</v>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3001</t>
-        </is>
-      </c>
-      <c r="E1556" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1556" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="n">
-        <v>58</v>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>0KC1FKH49D3001</t>
-        </is>
-      </c>
-      <c r="E1557" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1557" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="n">
-        <v>59</v>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1558" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C3040</t>
-        </is>
-      </c>
-      <c r="E1558" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1558" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="n">
-        <v>59</v>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C3040</t>
-        </is>
-      </c>
-      <c r="E1559" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1559" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="n">
-        <v>60</v>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Z</t>
-        </is>
-      </c>
-      <c r="E1560" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1560" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1560" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="n">
-        <v>60</v>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Z</t>
-        </is>
-      </c>
-      <c r="E1561" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1561" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="n">
-        <v>61</v>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Y</t>
-        </is>
-      </c>
-      <c r="E1562" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1562" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="n">
-        <v>61</v>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1563" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Y</t>
-        </is>
-      </c>
-      <c r="E1563" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1563" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="n">
-        <v>62</v>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303X</t>
-        </is>
-      </c>
-      <c r="E1564" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1564" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="n">
-        <v>62</v>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303X</t>
-        </is>
-      </c>
-      <c r="E1565" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1565" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="n">
-        <v>63</v>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303W</t>
-        </is>
-      </c>
-      <c r="E1566" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1566" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="n">
-        <v>63</v>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303W</t>
-        </is>
-      </c>
-      <c r="E1567" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1567" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="n">
-        <v>64</v>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303V</t>
-        </is>
-      </c>
-      <c r="E1568" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1568" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="n">
-        <v>64</v>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303V</t>
-        </is>
-      </c>
-      <c r="E1569" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1569" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="n">
-        <v>65</v>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303T</t>
-        </is>
-      </c>
-      <c r="E1570" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1570" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1570" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="n">
-        <v>65</v>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303T</t>
-        </is>
-      </c>
-      <c r="E1571" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1571" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="n">
-        <v>66</v>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303S</t>
-        </is>
-      </c>
-      <c r="E1572" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1572" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="n">
-        <v>66</v>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303S</t>
-        </is>
-      </c>
-      <c r="E1573" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1573" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="n">
-        <v>67</v>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303R</t>
-        </is>
-      </c>
-      <c r="E1574" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1574" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="n">
-        <v>67</v>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303R</t>
-        </is>
-      </c>
-      <c r="E1575" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1575" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="n">
-        <v>68</v>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Q</t>
-        </is>
-      </c>
-      <c r="E1576" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1576" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="n">
-        <v>68</v>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303Q</t>
-        </is>
-      </c>
-      <c r="E1577" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1577" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="n">
-        <v>69</v>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303N</t>
-        </is>
-      </c>
-      <c r="E1578" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1578" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="n">
-        <v>69</v>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303N</t>
-        </is>
-      </c>
-      <c r="E1579" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1579" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="n">
-        <v>70</v>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303M</t>
-        </is>
-      </c>
-      <c r="E1580" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1580" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="n">
-        <v>70</v>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303M</t>
-        </is>
-      </c>
-      <c r="E1581" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1581" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="n">
-        <v>71</v>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303L</t>
-        </is>
-      </c>
-      <c r="E1582" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1582" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1582" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="n">
-        <v>71</v>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303L</t>
-        </is>
-      </c>
-      <c r="E1583" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1583" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="n">
-        <v>72</v>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303K</t>
-        </is>
-      </c>
-      <c r="E1584" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1584" t="inlineStr">
-        <is>
-          <t>24 December 2024</t>
-        </is>
-      </c>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>08:10</t>
-        </is>
-      </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I1584" t="inlineStr">
-        <is>
-          <t>baking_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="n">
-        <v>72</v>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>MF49D0003</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr">
-        <is>
-          <t>0KC1FKH49C303K</t>
-        </is>
-      </c>
-      <c r="E1585" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="I1585" t="inlineStr">
         <is>
           <t>baking_24</t>
         </is>

--- a/Dataset/cleaned/final_data.xlsx
+++ b/Dataset/cleaned/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1873"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80976,6 +80976,9294 @@
         </is>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301F</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1874" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1874" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1874" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1874" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301F</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1875" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1875" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1875" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1875" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301E</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1876" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1876" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1876" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1876" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301E</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1877" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1877" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1877" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1877" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301D</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1878" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1878" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1878" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1878" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301D</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1879" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1879" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1879" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1879" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301C</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1880" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1880" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301C</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1881" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1881" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301B</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1882" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1882" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301B</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1883" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1883" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1883" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1883" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301A</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1884" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1884" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1884" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301A</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1885" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1885" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1885" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3019</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1886" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1886" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1886" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1886" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3019</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1887" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1887" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1887" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3018</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1888" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1888" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1888" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1888" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3018</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1889" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1889" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1889" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3017</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1890" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1890" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1890" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3017</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1891" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1891" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301V</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1892" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1892" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301V</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1893" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1893" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301T</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1894" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1894" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1894" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301T</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1895" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1895" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1895" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1895" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301S</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1896" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1896" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1896" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301S</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1897" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1897" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1897" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1897" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301M</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1898" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1898" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301M</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1899" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1899" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1899" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1899" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301L</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1900" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1900" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1900" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301L</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1901" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1901" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301K</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1902" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1902" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1902" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1902" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301K</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1903" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1903" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1903" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301J</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1904" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1904" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1904" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1904" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301J</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1905" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1905" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1905" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1905" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301H</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1906" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1906" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1906" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1906" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301H</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1907" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1907" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1907" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1907" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301G</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1908" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1908" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1908" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1908" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>MF49C0128</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C301G</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1909" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1909" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1909" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1909" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983024</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1910" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1910" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1910" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983024</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1911" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1911" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1911" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1911" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983022</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1912" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1912" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1912" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983022</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1913" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1913" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1913" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1913" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301Z</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1914" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1914" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1914" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1914" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301Z</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1915" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1915" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1915" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1915" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301Y</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1916" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1916" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1916" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301Y</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1917" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1917" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1917" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301P</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1918" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1918" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1918" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301P</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1919" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1919" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1919" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301R</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1920" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1920" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1920" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301R</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1921" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1921" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301S</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1922" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1922" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301S</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1923" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1923" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1923" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301W</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1924" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1924" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1924" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301W</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1925" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1925" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301X</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1926" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1926" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>0KC1FKH498301X</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1927" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1927" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302N</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1928" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1928" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1928" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302N</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1929" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1929" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1929" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302K</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1930" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1930" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302K</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1931" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1931" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1931" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1931" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302H</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1932" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1932" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1932" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302H</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1933" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1933" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1933" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1933" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302F</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1934" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1934" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1934" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302F</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1935" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1935" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302E</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1936" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1936" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1936" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302E</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1937" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1937" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302C</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1938" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1938" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302C</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1939" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1939" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302A</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1940" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1940" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302A</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1941" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1941" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983028</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1942" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1942" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983028</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1943" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1943" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983026</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1944" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1944" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>MF4980156</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983026</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1945" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1945" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983043</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1946" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1946" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983043</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1947" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1947" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983042</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1948" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1948" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1948" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983042</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1949" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1949" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1949" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983041</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1950" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1950" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983041</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1951" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1951" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>40</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983040</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1952" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1952" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>40</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>0KC1FKH4983040</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1953" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1953" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Z</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1954" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1954" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Z</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1955" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1955" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Y</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1956" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1956" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Y</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1957" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1957" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1957" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303X</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1958" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1958" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303X</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1959" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1959" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303W</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1960" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1960" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303W</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1961" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1961" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303V</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1962" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1962" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303V</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1963" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1963" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303T</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1964" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1964" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303T</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1965" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1965" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303S</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1966" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1966" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1966" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303S</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1967" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1967" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303R</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1968" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1968" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303R</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1969" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1969" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Q</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1970" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1970" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303Q</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1971" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1971" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303N</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1972" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1972" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303N</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1973" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1973" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303M</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1974" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1974" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1974" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303M</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1975" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1975" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1975" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303L</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1976" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1976" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1976" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303L</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1977" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1977" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1977" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1977" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303K</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1978" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1978" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1978" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303K</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1979" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1979" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303J</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1980" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1980" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1980" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>MF4980209</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>0KC1FKH498303J</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1981" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1981" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1981" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1981" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3039</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1982" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1982" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3039</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1983" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1983" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3038</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1984" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1984" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1984" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3038</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1985" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1985" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3037</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1986" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1986" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3037</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1987" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1987" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3036</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1988" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1988" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1988" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3036</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1989" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1989" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1989" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>59</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3035</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1990" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1990" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>59</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3035</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1991" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1991" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3034</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1992" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3034</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1993" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1993" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3033</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1994" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1994" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3033</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1995" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3032</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1996" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1996" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3032</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1997" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1997" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3031</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1998" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H1998" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I1998" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3031</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F1999" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H1999" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I1999" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303J</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2000" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2000" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2000" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303J</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2001" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2001" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2001" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303H</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2002" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2002" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2002" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303H</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2003" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2003" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2003" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303G</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2004" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2004" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2004" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2004" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303G</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2005" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2005" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2005" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2005" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303F</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2006" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2006" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2006" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303F</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2007" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2007" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2007" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303E</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2008" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2008" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2008" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303E</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2009" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2009" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2009" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303D</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2010" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2010" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2010" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303D</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2011" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2011" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2011" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303C</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2012" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2012" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2012" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303C</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2013" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2013" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2013" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303B</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2014" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2014" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2014" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303B</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2015" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2015" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2015" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303A</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2016" t="inlineStr">
+        <is>
+          <t>30 December 2024</t>
+        </is>
+      </c>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2016" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2016" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>MF49C0193</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C303A</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2017" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2017" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2017" t="inlineStr">
+        <is>
+          <t>baking_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3035</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2018" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2018" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2018" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3034</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2019" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2019" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2019" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2019" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3033</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2020" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2020" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2020" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3032</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2021" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2021" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2021" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A302N</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2022" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2022" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2022" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3031</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2023" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2023" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2023" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3030</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2024" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2024" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2024" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2024" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A302Y</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2025" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2025" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2025" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2025" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A302X</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2026" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2026" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2026" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A303E</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2027" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2027" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2027" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A303D</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2028" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2028" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2028" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A303C</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2029" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2029" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2029" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2029" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A303B</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2030" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2030" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2030" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2030" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A303A</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2031" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2031" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2031" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2031" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3039</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2032" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2032" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2032" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3038</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2033" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2033" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2033" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2033" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3037</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2034" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2034" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2034" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2034" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>MF49A0225</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3036</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2035" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2035" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2035" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301H</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2036" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2036" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2036" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301F</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2037" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2037" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2037" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301E</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2038" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2038" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2038" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301D</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2039" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2039" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2039" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2039" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301C</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2040" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2040" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2040" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301B</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2041" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2041" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B301A</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2042" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2042" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3019</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2043" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2043" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3017</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2044" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2044" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2044" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3016</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2045" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2045" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2045" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2045" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3014</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2046" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2046" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2046" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2046" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3015</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2047" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2047" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2047" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2047" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3013</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2048" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2048" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2048" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2048" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3012</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2049" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2049" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2049" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2049" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3011</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2050" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2050" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2050" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2050" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3010</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2051" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2051" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2051" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2051" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B300Z</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2052" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2052" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2052" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2052" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B300Y</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2053" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2053" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2053" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300H</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2054" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2054" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2054" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300G</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2055" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2055" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2055" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300F</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2056" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2056" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2056" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300E</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2057" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2057" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2057" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2057" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300D</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2058" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2058" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2058" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300C</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2059" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2059" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2059" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2059" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300B</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2060" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2060" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2060" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2060" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300A</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2061" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2061" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2061" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2061" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3007</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2062" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2062" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2062" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2062" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3009</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2063" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2063" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2063" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2063" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3008</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2064" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2064" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2064" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2064" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3006</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2065" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2065" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2065" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2065" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3005</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2066" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2066" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2066" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2066" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3004</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2067" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2067" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2067" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2067" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3003</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2068" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2068" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2068" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2068" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3002</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2069" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2069" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2069" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2069" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302R</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2070" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2070" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2070" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302P</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2071" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2071" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2071" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2071" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Y</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2072" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2072" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2072" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300X</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2073" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2073" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2073" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2073" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300W</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2074" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2074" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2074" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2074" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300V</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2075" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2075" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2075" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300T</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2076" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2076" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2076" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2076" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300S</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2077" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2077" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2077" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2077" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300R</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2078" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2078" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2078" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2078" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Q</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2079" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2079" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2079" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2079" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300P</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2080" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2080" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2080" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2080" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3017</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2081" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2081" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2081" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2081" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3016</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2082" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2082" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2082" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2082" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3015</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2083" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2083" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2083" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2083" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3014</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2084" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2084" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2084" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2084" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3013</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2085" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2085" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2085" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2085" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3012</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2086" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2086" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2086" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2086" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3011</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2087" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2087" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2087" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2087" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3010</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2088" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2088" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2088" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2088" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Z</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2089" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2089" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2089" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2089" t="inlineStr">
+        <is>
+          <t>31 Desember 2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/cleaned/final_data.xlsx
+++ b/Dataset/cleaned/final_data.xlsx
@@ -49946,7 +49946,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>0KC1FKH49C301V</t>
+          <t>0KC1FKH49C301X</t>
         </is>
       </c>
       <c r="E1152" t="n">
@@ -49989,7 +49989,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>0KC1FKH49C301V</t>
+          <t>0KC1FKH49C301X</t>
         </is>
       </c>
       <c r="E1153" t="n">
@@ -87207,7 +87207,7 @@
       </c>
       <c r="I2018" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87250,7 +87250,7 @@
       </c>
       <c r="I2019" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87293,7 +87293,7 @@
       </c>
       <c r="I2020" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87336,7 +87336,7 @@
       </c>
       <c r="I2021" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87379,7 +87379,7 @@
       </c>
       <c r="I2022" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87422,7 +87422,7 @@
       </c>
       <c r="I2023" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87465,7 +87465,7 @@
       </c>
       <c r="I2024" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87508,7 +87508,7 @@
       </c>
       <c r="I2025" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87551,7 +87551,7 @@
       </c>
       <c r="I2026" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87594,7 +87594,7 @@
       </c>
       <c r="I2027" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87637,7 +87637,7 @@
       </c>
       <c r="I2028" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87680,7 +87680,7 @@
       </c>
       <c r="I2029" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87723,7 +87723,7 @@
       </c>
       <c r="I2030" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87766,7 +87766,7 @@
       </c>
       <c r="I2031" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87809,7 +87809,7 @@
       </c>
       <c r="I2032" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87852,7 +87852,7 @@
       </c>
       <c r="I2033" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87895,7 +87895,7 @@
       </c>
       <c r="I2034" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87938,7 +87938,7 @@
       </c>
       <c r="I2035" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -87981,7 +87981,7 @@
       </c>
       <c r="I2036" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88024,7 +88024,7 @@
       </c>
       <c r="I2037" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88067,7 +88067,7 @@
       </c>
       <c r="I2038" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88110,7 +88110,7 @@
       </c>
       <c r="I2039" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88153,7 +88153,7 @@
       </c>
       <c r="I2040" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88196,7 +88196,7 @@
       </c>
       <c r="I2041" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88239,7 +88239,7 @@
       </c>
       <c r="I2042" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88282,7 +88282,7 @@
       </c>
       <c r="I2043" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88325,7 +88325,7 @@
       </c>
       <c r="I2044" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88368,7 +88368,7 @@
       </c>
       <c r="I2045" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88411,7 +88411,7 @@
       </c>
       <c r="I2046" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88454,7 +88454,7 @@
       </c>
       <c r="I2047" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88497,7 +88497,7 @@
       </c>
       <c r="I2048" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88540,7 +88540,7 @@
       </c>
       <c r="I2049" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88583,7 +88583,7 @@
       </c>
       <c r="I2050" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88626,7 +88626,7 @@
       </c>
       <c r="I2051" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88669,7 +88669,7 @@
       </c>
       <c r="I2052" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88712,7 +88712,7 @@
       </c>
       <c r="I2053" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88755,7 +88755,7 @@
       </c>
       <c r="I2054" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88798,7 +88798,7 @@
       </c>
       <c r="I2055" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88841,7 +88841,7 @@
       </c>
       <c r="I2056" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88884,7 +88884,7 @@
       </c>
       <c r="I2057" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88927,7 +88927,7 @@
       </c>
       <c r="I2058" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -88970,7 +88970,7 @@
       </c>
       <c r="I2059" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89013,7 +89013,7 @@
       </c>
       <c r="I2060" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89056,7 +89056,7 @@
       </c>
       <c r="I2061" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89099,7 +89099,7 @@
       </c>
       <c r="I2062" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89142,7 +89142,7 @@
       </c>
       <c r="I2063" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89185,7 +89185,7 @@
       </c>
       <c r="I2064" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89228,7 +89228,7 @@
       </c>
       <c r="I2065" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89271,7 +89271,7 @@
       </c>
       <c r="I2066" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89314,7 +89314,7 @@
       </c>
       <c r="I2067" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89357,7 +89357,7 @@
       </c>
       <c r="I2068" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89400,7 +89400,7 @@
       </c>
       <c r="I2069" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89443,7 +89443,7 @@
       </c>
       <c r="I2070" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89486,7 +89486,7 @@
       </c>
       <c r="I2071" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89529,7 +89529,7 @@
       </c>
       <c r="I2072" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89572,7 +89572,7 @@
       </c>
       <c r="I2073" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89615,7 +89615,7 @@
       </c>
       <c r="I2074" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89658,7 +89658,7 @@
       </c>
       <c r="I2075" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89701,7 +89701,7 @@
       </c>
       <c r="I2076" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89744,7 +89744,7 @@
       </c>
       <c r="I2077" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89787,7 +89787,7 @@
       </c>
       <c r="I2078" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89830,7 +89830,7 @@
       </c>
       <c r="I2079" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89873,7 +89873,7 @@
       </c>
       <c r="I2080" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89916,7 +89916,7 @@
       </c>
       <c r="I2081" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -89959,7 +89959,7 @@
       </c>
       <c r="I2082" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90002,7 +90002,7 @@
       </c>
       <c r="I2083" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90045,7 +90045,7 @@
       </c>
       <c r="I2084" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90088,7 +90088,7 @@
       </c>
       <c r="I2085" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90131,7 +90131,7 @@
       </c>
       <c r="I2086" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90174,7 +90174,7 @@
       </c>
       <c r="I2087" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90217,7 +90217,7 @@
       </c>
       <c r="I2088" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>
@@ -90260,7 +90260,7 @@
       </c>
       <c r="I2089" t="inlineStr">
         <is>
-          <t>31 Desember 2024</t>
+          <t>baking_31</t>
         </is>
       </c>
     </row>

--- a/Dataset/cleaned/final_data.xlsx
+++ b/Dataset/cleaned/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87213,7 +87213,7 @@
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
@@ -87227,7 +87227,7 @@
       </c>
       <c r="D2019" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3034</t>
+          <t>0KC1FKH49A3035</t>
         </is>
       </c>
       <c r="E2019" t="n">
@@ -87235,17 +87235,17 @@
       </c>
       <c r="F2019" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2019" t="inlineStr">
@@ -87256,7 +87256,7 @@
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
@@ -87270,7 +87270,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3033</t>
+          <t>0KC1FKH49A3034</t>
         </is>
       </c>
       <c r="E2020" t="n">
@@ -87299,7 +87299,7 @@
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
@@ -87313,7 +87313,7 @@
       </c>
       <c r="D2021" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3032</t>
+          <t>0KC1FKH49A3034</t>
         </is>
       </c>
       <c r="E2021" t="n">
@@ -87321,17 +87321,17 @@
       </c>
       <c r="F2021" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2021" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2021" t="inlineStr">
@@ -87342,7 +87342,7 @@
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
@@ -87356,7 +87356,7 @@
       </c>
       <c r="D2022" t="inlineStr">
         <is>
-          <t>0KC1FKH49A302N</t>
+          <t>0KC1FKH49A3033</t>
         </is>
       </c>
       <c r="E2022" t="n">
@@ -87385,7 +87385,7 @@
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
@@ -87399,7 +87399,7 @@
       </c>
       <c r="D2023" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3031</t>
+          <t>0KC1FKH49A3033</t>
         </is>
       </c>
       <c r="E2023" t="n">
@@ -87407,17 +87407,17 @@
       </c>
       <c r="F2023" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2023" t="inlineStr">
@@ -87428,7 +87428,7 @@
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
@@ -87442,7 +87442,7 @@
       </c>
       <c r="D2024" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3030</t>
+          <t>0KC1FKH49A3032</t>
         </is>
       </c>
       <c r="E2024" t="n">
@@ -87471,7 +87471,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
@@ -87485,7 +87485,7 @@
       </c>
       <c r="D2025" t="inlineStr">
         <is>
-          <t>0KC1FKH49A302Y</t>
+          <t>0KC1FKH49A3032</t>
         </is>
       </c>
       <c r="E2025" t="n">
@@ -87493,17 +87493,17 @@
       </c>
       <c r="F2025" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2025" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2025" t="inlineStr">
@@ -87514,7 +87514,7 @@
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
@@ -87528,7 +87528,7 @@
       </c>
       <c r="D2026" t="inlineStr">
         <is>
-          <t>0KC1FKH49A302X</t>
+          <t>0KC1FKH49A302N</t>
         </is>
       </c>
       <c r="E2026" t="n">
@@ -87557,7 +87557,7 @@
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
       </c>
       <c r="D2027" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303E</t>
+          <t>0KC1FKH49A302N</t>
         </is>
       </c>
       <c r="E2027" t="n">
@@ -87579,17 +87579,17 @@
       </c>
       <c r="F2027" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2027" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2027" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2027" t="inlineStr">
@@ -87600,7 +87600,7 @@
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
@@ -87614,7 +87614,7 @@
       </c>
       <c r="D2028" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303D</t>
+          <t>0KC1FKH49A3031</t>
         </is>
       </c>
       <c r="E2028" t="n">
@@ -87643,7 +87643,7 @@
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
@@ -87657,7 +87657,7 @@
       </c>
       <c r="D2029" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303C</t>
+          <t>0KC1FKH49A3031</t>
         </is>
       </c>
       <c r="E2029" t="n">
@@ -87665,17 +87665,17 @@
       </c>
       <c r="F2029" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2029" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2029" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2029" t="inlineStr">
@@ -87686,7 +87686,7 @@
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
@@ -87700,7 +87700,7 @@
       </c>
       <c r="D2030" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303B</t>
+          <t>0KC1FKH49A3030</t>
         </is>
       </c>
       <c r="E2030" t="n">
@@ -87729,7 +87729,7 @@
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
@@ -87743,7 +87743,7 @@
       </c>
       <c r="D2031" t="inlineStr">
         <is>
-          <t>0KC1FKH49A303A</t>
+          <t>0KC1FKH49A3030</t>
         </is>
       </c>
       <c r="E2031" t="n">
@@ -87751,17 +87751,17 @@
       </c>
       <c r="F2031" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2031" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2031" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2031" t="inlineStr">
@@ -87772,7 +87772,7 @@
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
@@ -87786,7 +87786,7 @@
       </c>
       <c r="D2032" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3039</t>
+          <t>0KC1FKH49A302Y</t>
         </is>
       </c>
       <c r="E2032" t="n">
@@ -87815,7 +87815,7 @@
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
@@ -87829,7 +87829,7 @@
       </c>
       <c r="D2033" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3038</t>
+          <t>0KC1FKH49A302Y</t>
         </is>
       </c>
       <c r="E2033" t="n">
@@ -87837,17 +87837,17 @@
       </c>
       <c r="F2033" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2033" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2033" t="inlineStr">
@@ -87858,7 +87858,7 @@
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
@@ -87872,7 +87872,7 @@
       </c>
       <c r="D2034" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3037</t>
+          <t>0KC1FKH49A302X</t>
         </is>
       </c>
       <c r="E2034" t="n">
@@ -87901,7 +87901,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
@@ -87915,7 +87915,7 @@
       </c>
       <c r="D2035" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3036</t>
+          <t>0KC1FKH49A302X</t>
         </is>
       </c>
       <c r="E2035" t="n">
@@ -87923,17 +87923,17 @@
       </c>
       <c r="F2035" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2035" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2035" t="inlineStr">
@@ -87944,7 +87944,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
@@ -87953,12 +87953,12 @@
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301H</t>
+          <t>0KC1FKH49A303E</t>
         </is>
       </c>
       <c r="E2036" t="n">
@@ -87987,7 +87987,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
@@ -87996,12 +87996,12 @@
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301F</t>
+          <t>0KC1FKH49A303E</t>
         </is>
       </c>
       <c r="E2037" t="n">
@@ -88009,17 +88009,17 @@
       </c>
       <c r="F2037" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2037" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2037" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2037" t="inlineStr">
@@ -88030,7 +88030,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
@@ -88039,12 +88039,12 @@
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301E</t>
+          <t>0KC1FKH49A303D</t>
         </is>
       </c>
       <c r="E2038" t="n">
@@ -88073,7 +88073,7 @@
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
@@ -88082,12 +88082,12 @@
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301D</t>
+          <t>0KC1FKH49A303D</t>
         </is>
       </c>
       <c r="E2039" t="n">
@@ -88095,17 +88095,17 @@
       </c>
       <c r="F2039" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2039" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2039" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2039" t="inlineStr">
@@ -88116,7 +88116,7 @@
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
@@ -88125,12 +88125,12 @@
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301C</t>
+          <t>0KC1FKH49A303C</t>
         </is>
       </c>
       <c r="E2040" t="n">
@@ -88159,7 +88159,7 @@
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
@@ -88168,12 +88168,12 @@
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301B</t>
+          <t>0KC1FKH49A303C</t>
         </is>
       </c>
       <c r="E2041" t="n">
@@ -88181,17 +88181,17 @@
       </c>
       <c r="F2041" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2041" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2041" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2041" t="inlineStr">
@@ -88202,7 +88202,7 @@
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
@@ -88211,12 +88211,12 @@
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr">
         <is>
-          <t>0KC1FKH49B301A</t>
+          <t>0KC1FKH49A303B</t>
         </is>
       </c>
       <c r="E2042" t="n">
@@ -88245,7 +88245,7 @@
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
@@ -88254,12 +88254,12 @@
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3019</t>
+          <t>0KC1FKH49A303B</t>
         </is>
       </c>
       <c r="E2043" t="n">
@@ -88267,17 +88267,17 @@
       </c>
       <c r="F2043" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2043" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2043" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2043" t="inlineStr">
@@ -88288,7 +88288,7 @@
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
@@ -88297,12 +88297,12 @@
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3017</t>
+          <t>0KC1FKH49A303A</t>
         </is>
       </c>
       <c r="E2044" t="n">
@@ -88331,7 +88331,7 @@
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
@@ -88340,12 +88340,12 @@
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3016</t>
+          <t>0KC1FKH49A303A</t>
         </is>
       </c>
       <c r="E2045" t="n">
@@ -88353,17 +88353,17 @@
       </c>
       <c r="F2045" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2045" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2045" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2045" t="inlineStr">
@@ -88374,7 +88374,7 @@
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
@@ -88383,12 +88383,12 @@
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3014</t>
+          <t>0KC1FKH49A3039</t>
         </is>
       </c>
       <c r="E2046" t="n">
@@ -88417,7 +88417,7 @@
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
@@ -88426,12 +88426,12 @@
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3015</t>
+          <t>0KC1FKH49A3039</t>
         </is>
       </c>
       <c r="E2047" t="n">
@@ -88439,17 +88439,17 @@
       </c>
       <c r="F2047" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2047" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2047" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2047" t="inlineStr">
@@ -88460,7 +88460,7 @@
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
@@ -88469,12 +88469,12 @@
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3013</t>
+          <t>0KC1FKH49A3038</t>
         </is>
       </c>
       <c r="E2048" t="n">
@@ -88503,7 +88503,7 @@
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
@@ -88512,12 +88512,12 @@
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3012</t>
+          <t>0KC1FKH49A3038</t>
         </is>
       </c>
       <c r="E2049" t="n">
@@ -88525,17 +88525,17 @@
       </c>
       <c r="F2049" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2049" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2049" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2049" t="inlineStr">
@@ -88546,7 +88546,7 @@
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
@@ -88555,12 +88555,12 @@
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3011</t>
+          <t>0KC1FKH49A3037</t>
         </is>
       </c>
       <c r="E2050" t="n">
@@ -88589,7 +88589,7 @@
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
@@ -88598,12 +88598,12 @@
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>0KC1FKH49B3010</t>
+          <t>0KC1FKH49A3037</t>
         </is>
       </c>
       <c r="E2051" t="n">
@@ -88611,17 +88611,17 @@
       </c>
       <c r="F2051" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2051" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2051" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2051" t="inlineStr">
@@ -88632,7 +88632,7 @@
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
@@ -88641,12 +88641,12 @@
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr">
         <is>
-          <t>0KC1FKH49B300Z</t>
+          <t>0KC1FKH49A3036</t>
         </is>
       </c>
       <c r="E2052" t="n">
@@ -88675,7 +88675,7 @@
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
@@ -88684,12 +88684,12 @@
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>MF49B0126</t>
+          <t>MF49A0225</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr">
         <is>
-          <t>0KC1FKH49B300Y</t>
+          <t>0KC1FKH49A3036</t>
         </is>
       </c>
       <c r="E2053" t="n">
@@ -88697,17 +88697,17 @@
       </c>
       <c r="F2053" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2053" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2053" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2053" t="inlineStr">
@@ -88718,7 +88718,7 @@
     </row>
     <row r="2054">
       <c r="A2054" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
@@ -88727,12 +88727,12 @@
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300H</t>
+          <t>0KC1FKH49B301H</t>
         </is>
       </c>
       <c r="E2054" t="n">
@@ -88761,7 +88761,7 @@
     </row>
     <row r="2055">
       <c r="A2055" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
@@ -88770,12 +88770,12 @@
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300G</t>
+          <t>0KC1FKH49B301H</t>
         </is>
       </c>
       <c r="E2055" t="n">
@@ -88783,17 +88783,17 @@
       </c>
       <c r="F2055" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2055" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2055" t="inlineStr">
@@ -88804,7 +88804,7 @@
     </row>
     <row r="2056">
       <c r="A2056" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
@@ -88813,12 +88813,12 @@
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300F</t>
+          <t>0KC1FKH49B301F</t>
         </is>
       </c>
       <c r="E2056" t="n">
@@ -88847,7 +88847,7 @@
     </row>
     <row r="2057">
       <c r="A2057" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
@@ -88856,12 +88856,12 @@
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300E</t>
+          <t>0KC1FKH49B301F</t>
         </is>
       </c>
       <c r="E2057" t="n">
@@ -88869,17 +88869,17 @@
       </c>
       <c r="F2057" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2057" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2057" t="inlineStr">
@@ -88890,7 +88890,7 @@
     </row>
     <row r="2058">
       <c r="A2058" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
@@ -88899,12 +88899,12 @@
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300D</t>
+          <t>0KC1FKH49B301E</t>
         </is>
       </c>
       <c r="E2058" t="n">
@@ -88933,7 +88933,7 @@
     </row>
     <row r="2059">
       <c r="A2059" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
@@ -88942,12 +88942,12 @@
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300C</t>
+          <t>0KC1FKH49B301E</t>
         </is>
       </c>
       <c r="E2059" t="n">
@@ -88955,17 +88955,17 @@
       </c>
       <c r="F2059" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2059" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2059" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2059" t="inlineStr">
@@ -88976,7 +88976,7 @@
     </row>
     <row r="2060">
       <c r="A2060" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
@@ -88985,12 +88985,12 @@
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300B</t>
+          <t>0KC1FKH49B301D</t>
         </is>
       </c>
       <c r="E2060" t="n">
@@ -89019,7 +89019,7 @@
     </row>
     <row r="2061">
       <c r="A2061" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
@@ -89028,12 +89028,12 @@
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr">
         <is>
-          <t>0KC1FKH49A300A</t>
+          <t>0KC1FKH49B301D</t>
         </is>
       </c>
       <c r="E2061" t="n">
@@ -89041,17 +89041,17 @@
       </c>
       <c r="F2061" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2061" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2061" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2061" t="inlineStr">
@@ -89062,7 +89062,7 @@
     </row>
     <row r="2062">
       <c r="A2062" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
@@ -89071,12 +89071,12 @@
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3007</t>
+          <t>0KC1FKH49B301C</t>
         </is>
       </c>
       <c r="E2062" t="n">
@@ -89105,7 +89105,7 @@
     </row>
     <row r="2063">
       <c r="A2063" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
@@ -89114,12 +89114,12 @@
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3009</t>
+          <t>0KC1FKH49B301C</t>
         </is>
       </c>
       <c r="E2063" t="n">
@@ -89127,17 +89127,17 @@
       </c>
       <c r="F2063" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2063" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2063" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2063" t="inlineStr">
@@ -89148,7 +89148,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
@@ -89157,12 +89157,12 @@
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3008</t>
+          <t>0KC1FKH49B301B</t>
         </is>
       </c>
       <c r="E2064" t="n">
@@ -89191,7 +89191,7 @@
     </row>
     <row r="2065">
       <c r="A2065" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
@@ -89200,12 +89200,12 @@
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3006</t>
+          <t>0KC1FKH49B301B</t>
         </is>
       </c>
       <c r="E2065" t="n">
@@ -89213,17 +89213,17 @@
       </c>
       <c r="F2065" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2065" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2065" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2065" t="inlineStr">
@@ -89234,7 +89234,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
@@ -89243,12 +89243,12 @@
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3005</t>
+          <t>0KC1FKH49B301A</t>
         </is>
       </c>
       <c r="E2066" t="n">
@@ -89277,7 +89277,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
@@ -89286,12 +89286,12 @@
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3004</t>
+          <t>0KC1FKH49B301A</t>
         </is>
       </c>
       <c r="E2067" t="n">
@@ -89299,17 +89299,17 @@
       </c>
       <c r="F2067" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2067" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2067" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2067" t="inlineStr">
@@ -89320,7 +89320,7 @@
     </row>
     <row r="2068">
       <c r="A2068" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
@@ -89329,12 +89329,12 @@
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3003</t>
+          <t>0KC1FKH49B3019</t>
         </is>
       </c>
       <c r="E2068" t="n">
@@ -89363,7 +89363,7 @@
     </row>
     <row r="2069">
       <c r="A2069" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
@@ -89372,12 +89372,12 @@
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr">
         <is>
-          <t>0KC1FKH49A3002</t>
+          <t>0KC1FKH49B3019</t>
         </is>
       </c>
       <c r="E2069" t="n">
@@ -89385,17 +89385,17 @@
       </c>
       <c r="F2069" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2069" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2069" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2069" t="inlineStr">
@@ -89406,7 +89406,7 @@
     </row>
     <row r="2070">
       <c r="A2070" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
@@ -89415,12 +89415,12 @@
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr">
         <is>
-          <t>0KC1FKH498302R</t>
+          <t>0KC1FKH49B3017</t>
         </is>
       </c>
       <c r="E2070" t="n">
@@ -89449,7 +89449,7 @@
     </row>
     <row r="2071">
       <c r="A2071" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
@@ -89458,12 +89458,12 @@
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t>MF49A0146</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2071" t="inlineStr">
         <is>
-          <t>0KC1FKH498302P</t>
+          <t>0KC1FKH49B3017</t>
         </is>
       </c>
       <c r="E2071" t="n">
@@ -89471,17 +89471,17 @@
       </c>
       <c r="F2071" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2071" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2071" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2071" t="inlineStr">
@@ -89492,7 +89492,7 @@
     </row>
     <row r="2072">
       <c r="A2072" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
@@ -89501,12 +89501,12 @@
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2072" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300Y</t>
+          <t>0KC1FKH49B3016</t>
         </is>
       </c>
       <c r="E2072" t="n">
@@ -89535,7 +89535,7 @@
     </row>
     <row r="2073">
       <c r="A2073" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
@@ -89544,12 +89544,12 @@
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2073" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300X</t>
+          <t>0KC1FKH49B3016</t>
         </is>
       </c>
       <c r="E2073" t="n">
@@ -89557,17 +89557,17 @@
       </c>
       <c r="F2073" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2073" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2073" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2073" t="inlineStr">
@@ -89578,7 +89578,7 @@
     </row>
     <row r="2074">
       <c r="A2074" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
@@ -89587,12 +89587,12 @@
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2074" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300W</t>
+          <t>0KC1FKH49B3014</t>
         </is>
       </c>
       <c r="E2074" t="n">
@@ -89621,7 +89621,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
@@ -89630,12 +89630,12 @@
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2075" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300V</t>
+          <t>0KC1FKH49B3014</t>
         </is>
       </c>
       <c r="E2075" t="n">
@@ -89643,17 +89643,17 @@
       </c>
       <c r="F2075" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2075" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2075" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2075" t="inlineStr">
@@ -89664,7 +89664,7 @@
     </row>
     <row r="2076">
       <c r="A2076" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
@@ -89673,12 +89673,12 @@
       </c>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2076" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300T</t>
+          <t>0KC1FKH49B3015</t>
         </is>
       </c>
       <c r="E2076" t="n">
@@ -89707,7 +89707,7 @@
     </row>
     <row r="2077">
       <c r="A2077" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
@@ -89716,12 +89716,12 @@
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300S</t>
+          <t>0KC1FKH49B3015</t>
         </is>
       </c>
       <c r="E2077" t="n">
@@ -89729,17 +89729,17 @@
       </c>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2077" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2077" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2077" t="inlineStr">
@@ -89750,7 +89750,7 @@
     </row>
     <row r="2078">
       <c r="A2078" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
@@ -89759,12 +89759,12 @@
       </c>
       <c r="C2078" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300R</t>
+          <t>0KC1FKH49B3013</t>
         </is>
       </c>
       <c r="E2078" t="n">
@@ -89793,7 +89793,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
@@ -89802,12 +89802,12 @@
       </c>
       <c r="C2079" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2079" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300Q</t>
+          <t>0KC1FKH49B3013</t>
         </is>
       </c>
       <c r="E2079" t="n">
@@ -89815,17 +89815,17 @@
       </c>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2079" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2079" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2079" t="inlineStr">
@@ -89836,7 +89836,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
@@ -89845,12 +89845,12 @@
       </c>
       <c r="C2080" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>0KC1FKH49D300P</t>
+          <t>0KC1FKH49B3012</t>
         </is>
       </c>
       <c r="E2080" t="n">
@@ -89879,7 +89879,7 @@
     </row>
     <row r="2081">
       <c r="A2081" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
@@ -89888,12 +89888,12 @@
       </c>
       <c r="C2081" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3017</t>
+          <t>0KC1FKH49B3012</t>
         </is>
       </c>
       <c r="E2081" t="n">
@@ -89901,17 +89901,17 @@
       </c>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2081" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2081" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2081" t="inlineStr">
@@ -89922,7 +89922,7 @@
     </row>
     <row r="2082">
       <c r="A2082" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
@@ -89931,12 +89931,12 @@
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2082" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3016</t>
+          <t>0KC1FKH49B3011</t>
         </is>
       </c>
       <c r="E2082" t="n">
@@ -89965,7 +89965,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
@@ -89974,12 +89974,12 @@
       </c>
       <c r="C2083" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2083" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3015</t>
+          <t>0KC1FKH49B3011</t>
         </is>
       </c>
       <c r="E2083" t="n">
@@ -89987,17 +89987,17 @@
       </c>
       <c r="F2083" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2083" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2083" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2083" t="inlineStr">
@@ -90008,7 +90008,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
@@ -90017,12 +90017,12 @@
       </c>
       <c r="C2084" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2084" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3014</t>
+          <t>0KC1FKH49B3010</t>
         </is>
       </c>
       <c r="E2084" t="n">
@@ -90051,7 +90051,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
@@ -90060,12 +90060,12 @@
       </c>
       <c r="C2085" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2085" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3013</t>
+          <t>0KC1FKH49B3010</t>
         </is>
       </c>
       <c r="E2085" t="n">
@@ -90073,17 +90073,17 @@
       </c>
       <c r="F2085" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2085" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2085" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2085" t="inlineStr">
@@ -90094,7 +90094,7 @@
     </row>
     <row r="2086">
       <c r="A2086" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
@@ -90103,12 +90103,12 @@
       </c>
       <c r="C2086" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2086" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3012</t>
+          <t>0KC1FKH49B300Z</t>
         </is>
       </c>
       <c r="E2086" t="n">
@@ -90137,7 +90137,7 @@
     </row>
     <row r="2087">
       <c r="A2087" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
@@ -90146,12 +90146,12 @@
       </c>
       <c r="C2087" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2087" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3011</t>
+          <t>0KC1FKH49B300Z</t>
         </is>
       </c>
       <c r="E2087" t="n">
@@ -90159,17 +90159,17 @@
       </c>
       <c r="F2087" t="inlineStr">
         <is>
-          <t>31 December 2024</t>
+          <t>02 January 2025</t>
         </is>
       </c>
       <c r="G2087" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2087" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="I2087" t="inlineStr">
@@ -90180,7 +90180,7 @@
     </row>
     <row r="2088">
       <c r="A2088" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B2088" t="inlineStr">
         <is>
@@ -90189,12 +90189,12 @@
       </c>
       <c r="C2088" t="inlineStr">
         <is>
-          <t>MF49D0035</t>
+          <t>MF49B0126</t>
         </is>
       </c>
       <c r="D2088" t="inlineStr">
         <is>
-          <t>0KC1FKH49D3010</t>
+          <t>0KC1FKH49B300Y</t>
         </is>
       </c>
       <c r="E2088" t="n">
@@ -90223,44 +90223,6236 @@
     </row>
     <row r="2089">
       <c r="A2089" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>MF49B0126</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B300Y</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2089" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2089" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2089" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2089" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300H</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2090" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2090" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2090" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2090" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300H</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2091" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2091" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2091" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2091" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300G</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2092" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2092" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2092" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2092" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300G</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2093" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2093" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2093" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2093" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300F</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2094" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2094" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2094" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2094" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300F</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2095" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2095" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2095" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2095" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300E</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2096" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2096" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2096" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2096" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300E</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2097" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2097" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2097" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2097" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300D</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2098" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2098" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2098" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2098" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300D</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2099" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2099" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2099" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2099" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300C</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2100" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2100" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2100" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2100" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300C</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2101" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2101" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2101" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2101" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300B</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2102" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2102" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2102" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2102" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300B</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2103" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2103" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2103" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2103" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300A</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2104" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2104" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2104" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2104" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A300A</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2105" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2105" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2105" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2105" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3007</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2106" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2106" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2106" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2106" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3007</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2107" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2107" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2107" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2107" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3009</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2108" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2108" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2108" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2108" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3009</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2109" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2109" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2109" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2109" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3008</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2110" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2110" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2110" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2110" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3008</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2111" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2111" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2111" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2111" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3006</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2112" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2112" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2112" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2112" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3006</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2113" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2113" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2113" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2113" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3005</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2114" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2114" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2114" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2114" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3005</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2115" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2115" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2115" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2115" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3004</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2116" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2116" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2116" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2116" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3004</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2117" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2117" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2117" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2117" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3003</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2118" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2118" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2118" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2118" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3003</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2119" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2119" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2119" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2119" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3002</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2120" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2120" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2120" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2120" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>0KC1FKH49A3002</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2121" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2121" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2121" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302R</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2122" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2122" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2122" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2122" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302R</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2123" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2123" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302P</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2124" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2124" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2124" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>MF49A0146</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>0KC1FKH498302P</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2125" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2125" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2125" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2125" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Y</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2126" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2126" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2126" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2126" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Y</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2127" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2127" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2127" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2127" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300X</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2128" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2128" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300X</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2129" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2129" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300W</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2130" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2130" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2130" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2130" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300W</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2131" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2131" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2131" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300V</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2132" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2132" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300V</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2133" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2133" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300T</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2134" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2134" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2134" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300T</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2135" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2135" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2135" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300S</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2136" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2136" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2136" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300S</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2137" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2137" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2137" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300R</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2138" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2138" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2138" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2138" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300R</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2139" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2139" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2139" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2139" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Q</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2140" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2140" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2140" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2140" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Q</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2141" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2141" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2141" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300P</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2142" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2142" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2142" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2142" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300P</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2143" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2143" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2143" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3017</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2144" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2144" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2144" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3017</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2145" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2145" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2145" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3016</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2146" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2146" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2146" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3016</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2147" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2147" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2147" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3015</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2148" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2148" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3015</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2149" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2149" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2149" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3014</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2150" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2150" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2150" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3014</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2151" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2151" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3013</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2152" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2152" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2152" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3013</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2153" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2153" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2153" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3012</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2154" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2154" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2154" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3012</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2155" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2155" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3011</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2156" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2156" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2156" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2156" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3011</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2157" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2157" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2157" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2157" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3010</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2158" t="inlineStr">
+        <is>
+          <t>31 December 2024</t>
+        </is>
+      </c>
+      <c r="G2158" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2158" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2158" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3010</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2159" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2159" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2159" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2159" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
         <v>72</v>
       </c>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>V320BJ8-Q01</t>
-        </is>
-      </c>
-      <c r="C2089" t="inlineStr">
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
         <is>
           <t>MF49D0035</t>
         </is>
       </c>
-      <c r="D2089" t="inlineStr">
+      <c r="D2160" t="inlineStr">
         <is>
           <t>0KC1FKH49D300Z</t>
         </is>
       </c>
-      <c r="E2089" t="n">
-        <v>801983371</v>
-      </c>
-      <c r="F2089" t="inlineStr">
+      <c r="E2160" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2160" t="inlineStr">
         <is>
           <t>31 December 2024</t>
         </is>
       </c>
-      <c r="G2089" t="inlineStr">
+      <c r="G2160" t="inlineStr">
         <is>
           <t>11:15</t>
         </is>
       </c>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="I2089" t="inlineStr">
+      <c r="H2160" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2160" t="inlineStr">
         <is>
           <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>MF49D0035</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300Z</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2161" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H2161" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="I2161" t="inlineStr">
+        <is>
+          <t>baking_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300N</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2162" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2162" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2162" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2162" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300M</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2163" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2163" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2163" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2163" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300L</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2164" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2164" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2164" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2164" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300K</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2165" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2165" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2165" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2165" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300J</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2166" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2166" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2166" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2166" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300H</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2167" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2167" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2167" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2167" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300G</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2168" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2168" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2168" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2168" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300F</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2169" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2169" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2169" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2169" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300E</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2170" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2170" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2170" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2170" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300D</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2171" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2171" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2171" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2171" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300C</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2172" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2172" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2172" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2172" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300B</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2173" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2173" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2173" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D300A</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2174" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2174" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2174" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3009</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2175" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2175" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2175" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3008</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2176" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2176" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2176" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3007</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2177" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2177" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2177" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3005</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2178" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2178" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2178" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>MF49D0029</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>0KC1FKH49D3006</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2179" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2179" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303F</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2180" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2180" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2180" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2180" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303E</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2181" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2181" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303D</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2182" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2182" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2182" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303C</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2183" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2183" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303B</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2184" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2184" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2184" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303A</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2185" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2185" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2185" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3039</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2186" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2186" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2186" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3038</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2187" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2187" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2187" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B3037</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2188" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2188" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2188" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3002</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2189" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2189" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2189" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>0KC1FKH49C3001</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2190" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2190" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2190" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2190" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303N</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2191" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2191" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2191" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303K</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2192" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2192" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2192" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2192" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303L</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2193" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2193" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303J</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2194" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2194" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2194" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2194" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303M</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2195" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2195" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303H</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2196" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2196" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2196" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>MF49C0001</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>0KC1FKH49B303G</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2197" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2197" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300T</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2198" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2198" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2198" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300W</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2199" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2199" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2199" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300V</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2200" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2200" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2200" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300Y</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2201" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300X</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2202" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2202" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2202" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E3010</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2203" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300Z</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2204" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2204" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E3013</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2205" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2205" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2205" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E3011</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2206" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2206" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300J</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2207" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2207" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300L</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2208" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2208" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300K</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2209" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2209" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300N</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2210" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2210" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2210" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300M</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2211" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2211" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2211" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300Q</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2212" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2212" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2212" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300P</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2213" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2213" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300S</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2214" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2214" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2214" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>MF49E0100</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E300R</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2215" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2215" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302H</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2216" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2216" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2216" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302G</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2217" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2217" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302F</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2218" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2218" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2218" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302E</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2219" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2219" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2219" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302D</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2220" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302B</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2221" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2221" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E3028</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2222" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2222" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2222" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E3029</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2223" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2223" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302A</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2224" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302S</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2225" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2225" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302R</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2226" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302Q</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2227" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2227" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2227" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302P</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2228" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2228" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302N</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2229" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2229" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2229" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302M</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2230" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302L</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2231" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2231" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302K</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2232" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2232" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>V320BJ8-Q01</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>MF49E0132</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>0KC1FKH49E302J</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>801983371</v>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>02 January 2025</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="I2233" t="inlineStr">
+        <is>
+          <t>baking_02_jan</t>
         </is>
       </c>
     </row>
